--- a/Arquivos/Estatistica/Atividade 2 M3/Atividade 2 M3.xlsx
+++ b/Arquivos/Estatistica/Atividade 2 M3/Atividade 2 M3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculdade\AtividadesFaculdade\Arquivos\Estatistica\Atividade 2 M3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7324E51-ABD2-43BE-86FC-DDE77C554762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E7EEF8-0521-4B56-A3FA-451E4B6B474C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7020" yWindow="7005" windowWidth="14280" windowHeight="8520" firstSheet="1" activeTab="4" xr2:uid="{0F4EDEA0-CB93-43CE-B444-B5B7DDD1B1D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{0F4EDEA0-CB93-43CE-B444-B5B7DDD1B1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Questão 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Processo</t>
   </si>
@@ -279,19 +279,16 @@
     <t>Número de acidentes</t>
   </si>
   <si>
-    <t>r²=</t>
-  </si>
-  <si>
-    <t>r=</t>
-  </si>
-  <si>
     <t>gl=2*25-2</t>
   </si>
   <si>
     <t>Tc=</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>r =</t>
+  </si>
+  <si>
+    <t>r² =</t>
   </si>
 </sst>
 </file>
@@ -299,7 +296,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -413,7 +410,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,12 +432,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,9 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -881,7 +869,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,15 +880,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -912,18 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,16 +941,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,16 +965,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2135,16 +2127,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>399</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76599</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>76591</xdr:rowOff>
+      <xdr:rowOff>162316</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2167,8 +2159,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3057525" y="1000125"/>
+          <a:off x="6181725" y="1085850"/>
           <a:ext cx="2857899" cy="2800741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676767</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930672FB-2A6E-4FE4-A09F-EF121087E94C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="2371725"/>
+          <a:ext cx="3524742" cy="2553056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2403,6 +2439,55 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>157594</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>363680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>196843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6DE03B-BB92-401E-B8FF-DEA0303D6400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1698912" y="1194954"/>
+          <a:ext cx="4033405" cy="2231730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2750,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70000B6E-E4AC-44A2-A811-C0C6C370B76F}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,10 +2917,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="61">
         <f>E2/100</f>
         <v>0.09</v>
       </c>
@@ -2845,44 +2930,42 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="68">
+      <c r="A8" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="61">
         <f>2*B2-2</f>
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="68">
         <f>(E2+E3)/2</f>
         <v>4.5049999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="68">
         <f>(C2-C3)*SQRT(B2/(2*B9))</f>
         <v>-2.4986122674478857</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="69">
+      <c r="A11" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="68">
         <v>1.679</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="77" t="s">
-        <v>71</v>
-      </c>
+      <c r="B14" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2896,7 +2979,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,9 +3011,7 @@
       <c r="B3" s="4">
         <v>1.86</v>
       </c>
-      <c r="H3" s="78" t="s">
-        <v>71</v>
-      </c>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2986,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E294C3D0-61D9-487B-8383-B96A91D0043A}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,18 +3078,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="66" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="73">
+      <c r="A2" s="65">
         <v>5</v>
       </c>
-      <c r="B2" s="73">
+      <c r="B2" s="65">
         <v>13</v>
       </c>
     </row>
@@ -3055,7 +3136,7 @@
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B24" s="22">
         <v>0.90959999999999996</v>
@@ -3063,9 +3144,9 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="75">
+        <v>69</v>
+      </c>
+      <c r="B25" s="67">
         <f>SQRT(B24)</f>
         <v>0.95372952140530909</v>
       </c>
@@ -3078,178 +3159,178 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1DE8AE-A65D-4C7C-9DD3-E27667F88C98}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="1" max="1" width="30.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="14" style="12" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="12"/>
     <col min="4" max="4" width="30.140625" style="12" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="12"/>
-    <col min="7" max="7" width="21.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="12" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="63">
+      <c r="I1" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="49">
         <v>0.26500000000000001</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="49">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="49">
         <v>0.26600000000000001</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="49">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="49">
         <v>0.26700000000000002</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="49">
         <v>0.26500000000000001</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="49">
         <v>0.26700000000000002</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="50">
         <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="52">
         <v>0.26400000000000001</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="52">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="52">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="52">
         <v>0.26600000000000001</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="52">
         <v>0.26700000000000002</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="52">
         <v>0.26800000000000002</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="52">
         <v>0.26400000000000001</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="53">
         <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="60">
         <f>B2-B3</f>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="59">
         <f t="shared" ref="C5:I5" si="0">C2-C3</f>
         <v>0</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="59">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="59">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="59">
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="59">
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="59">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="32">
+      <c r="L6" s="31">
         <f>(B5-$B$8)^2</f>
         <v>6.2500000000000116E-8</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="31">
         <f t="shared" ref="M6:S6" si="1">(C5-$B$8)^2</f>
         <v>5.6250000000000097E-7</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="31">
         <f t="shared" si="1"/>
         <v>1.5625000000000028E-6</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="31">
         <f t="shared" si="1"/>
         <v>6.2500000000000116E-8</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="31">
         <f t="shared" si="1"/>
         <v>5.6250000000000097E-7</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="31">
         <f t="shared" si="1"/>
         <v>1.4062500000000025E-5</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="31">
         <f t="shared" si="1"/>
         <v>5.0625000000000087E-6</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="31">
         <f t="shared" si="1"/>
         <v>1.5625000000000028E-6</v>
       </c>
@@ -3258,196 +3339,212 @@
       <c r="A7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="60">
         <f>SUM(B5:I5)</f>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="60">
         <f>B7/I1</f>
         <v>7.5000000000000067E-4</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="60">
         <f>SUM(L6:S6)/(8-1)</f>
         <v>3.3571428571428631E-6</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="60">
         <f>SQRT(B9)</f>
         <v>1.8322507626258103E-3</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="50">
-        <v>0.266125</v>
-      </c>
-      <c r="F10" s="50">
-        <v>0.26537500000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="50">
-        <v>9.8214285714285869E-7</v>
-      </c>
-      <c r="F11" s="50">
-        <v>2.267857142857147E-6</v>
-      </c>
-    </row>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="60">
         <f>(B8*SQRT(I1))/B10</f>
         <v>1.1577674774819398</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="50">
-        <v>8</v>
-      </c>
-      <c r="F12" s="50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="50">
-        <v>-3.5895338196252347E-2</v>
-      </c>
-      <c r="F13" s="50"/>
-    </row>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="63">
         <v>0.05</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="50">
-        <v>0</v>
-      </c>
-      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="61">
         <f>B14/2</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="50">
-        <v>7</v>
-      </c>
-      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="61">
         <f>I1-1</f>
         <v>7</v>
       </c>
-      <c r="D16" s="50" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="61">
+        <v>2.3650000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="78">
+        <v>0.266125</v>
+      </c>
+      <c r="C22" s="78">
+        <v>0.26537500000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="43">
+        <v>9.8214285714285869E-7</v>
+      </c>
+      <c r="C23" s="43">
+        <v>2.267857142857147E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="43">
+        <v>8</v>
+      </c>
+      <c r="C24" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="78">
+        <v>-3.5895338196252347E-2</v>
+      </c>
+      <c r="C25" s="43"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="43">
+        <v>0</v>
+      </c>
+      <c r="C26" s="43"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="43">
+        <v>7</v>
+      </c>
+      <c r="C27" s="43"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="50">
+      <c r="B28" s="78">
         <v>1.1577674774819395</v>
       </c>
-      <c r="F16" s="50"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="68">
-        <v>2.3650000000000002</v>
-      </c>
-      <c r="D17" s="50" t="s">
+      <c r="C28" s="43"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="50">
+      <c r="B29" s="78">
         <v>0.14246569042116072</v>
       </c>
-      <c r="F17" s="50"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="50" t="s">
+      <c r="C29" s="43"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="50">
+      <c r="B30" s="78">
         <v>1.8945786050900073</v>
       </c>
-      <c r="F18" s="50"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="50" t="s">
+      <c r="C30" s="43"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="50">
+      <c r="B31" s="78">
         <v>0.28493138084232145</v>
       </c>
-      <c r="F19" s="50"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="51" t="s">
+      <c r="C31" s="43"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="51">
+      <c r="B32" s="79">
         <v>2.3646242515927849</v>
       </c>
-      <c r="F20" s="51"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
-        <v>71</v>
-      </c>
+      <c r="C32" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3455,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8EE11A-C51F-4093-BD72-E6DA1B06A6C1}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3470,33 +3567,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="36">
         <v>0.05</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>1.4</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>1.6</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="32">
         <f>(A3-$B$16)^2</f>
         <v>1.2100000000000022E-2</v>
       </c>
@@ -3504,19 +3601,19 @@
         <f>(B3-$E$16)^2</f>
         <v>5.224489795918371E-2</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="32">
         <f>SUM(G3:G12)/(B15-1)</f>
         <v>7.6555555555555543E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>1.7</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <f t="shared" ref="G4:G12" si="0">(A4-$B$16)^2</f>
         <v>3.6099999999999979E-2</v>
       </c>
@@ -3524,19 +3621,19 @@
         <f t="shared" ref="H4:H9" si="1">(B4-$E$16)^2</f>
         <v>0.1379591836734694</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <f>SUM(H3:H9)/(E15-1)</f>
         <v>4.2380952380952387E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>1.5</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>1.5</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <f t="shared" si="0"/>
         <v>1.0000000000000018E-4</v>
       </c>
@@ -3546,13 +3643,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>1.8</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>1.5</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <f>(A6-$B$16)^2</f>
         <v>8.4100000000000022E-2</v>
       </c>
@@ -3562,13 +3659,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>1.8</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>1.4</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <f t="shared" si="0"/>
         <v>8.4100000000000022E-2</v>
       </c>
@@ -3578,13 +3675,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>1.4</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>1.2</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="32">
         <f t="shared" si="0"/>
         <v>1.2100000000000022E-2</v>
       </c>
@@ -3594,13 +3691,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>1.3</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>1.4</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <f t="shared" si="0"/>
         <v>4.4099999999999986E-2</v>
       </c>
@@ -3610,33 +3707,33 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>1.2</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="G10" s="33">
+      <c r="B10" s="26"/>
+      <c r="G10" s="32">
         <f t="shared" si="0"/>
         <v>9.6100000000000033E-2</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="G11" s="33">
+      <c r="B11" s="26"/>
+      <c r="G11" s="32">
         <f t="shared" si="0"/>
         <v>0.16809999999999994</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>1.9</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="G12" s="33">
+      <c r="B12" s="27"/>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
         <v>0.15209999999999993</v>
       </c>
@@ -3644,38 +3741,38 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="D14" s="46" t="s">
+      <c r="B14" s="72"/>
+      <c r="D14" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="47"/>
+      <c r="E14" s="74"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>10</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <f>SUM(A3:A12)/B15</f>
         <v>1.51</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="42" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="20">
@@ -3684,14 +3781,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <f>J3</f>
         <v>7.6555555555555543E-2</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="40" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="20">
@@ -3700,14 +3797,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="34">
         <f>SQRT(B17)</f>
         <v>0.27668674625929507</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="20">
@@ -3716,13 +3813,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="75"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="12">
@@ -3737,7 +3834,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="12">
@@ -3746,7 +3843,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3756,34 +3853,34 @@
         <f>((B15-1)*B18+(E15-1)*E18)/B23</f>
         <v>0.24835858612211908</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52" t="s">
+      <c r="F24" s="45"/>
+      <c r="G24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="30">
         <f>SQRT(C24)</f>
         <v>0.49835588300141404</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="43">
         <v>1.51</v>
       </c>
-      <c r="H25" s="53">
+      <c r="H25" s="46">
         <v>1.3714285714285714</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -3793,102 +3890,102 @@
         <f>(B16-E16)/(B25*(SQRT(1/B15+1/E15)))</f>
         <v>0.56423323549014792</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="46">
         <v>7.655555555555596E-2</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="46">
         <v>4.238095238095211E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="12">
         <f>D1/2</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="43">
         <v>10</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="43">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="30">
         <v>2.1309999999999998</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="50">
+      <c r="G28" s="43">
         <v>0</v>
       </c>
-      <c r="H28" s="50"/>
+      <c r="H28" s="43"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="50">
+      <c r="G29" s="43">
         <v>15</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="46">
         <v>1.1834647478125808</v>
       </c>
-      <c r="H30" s="50"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="53">
+      <c r="G31" s="46">
         <v>0.12752110353467896</v>
       </c>
-      <c r="H31" s="50"/>
+      <c r="H31" s="43"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="53">
+      <c r="G32" s="46">
         <v>1.7530503556925723</v>
       </c>
-      <c r="H32" s="50"/>
+      <c r="H32" s="43"/>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="53">
+      <c r="G33" s="46">
         <v>0.25504220706935793</v>
       </c>
-      <c r="H33" s="50"/>
+      <c r="H33" s="43"/>
     </row>
     <row r="34" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="54">
+      <c r="G34" s="47">
         <v>2.1314495455597742</v>
       </c>
-      <c r="H34" s="51"/>
+      <c r="H34" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
